--- a/Data/metricas conjuntas.xlsx
+++ b/Data/metricas conjuntas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anaconda3\MeScripts\Comisiones4\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9405"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>Carolina Pereda</t>
   </si>
@@ -181,6 +186,15 @@
   </si>
   <si>
     <t>Typeofkpi</t>
+  </si>
+  <si>
+    <t>Kam Regional</t>
+  </si>
+  <si>
+    <t>Tasa de No Pago</t>
+  </si>
+  <si>
+    <t>CAGUAYO</t>
   </si>
 </sst>
 </file>
@@ -518,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,11 +543,11 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
@@ -1129,6 +1143,20 @@
         <v>51</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>

--- a/Data/metricas conjuntas.xlsx
+++ b/Data/metricas conjuntas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anaconda3\MeScripts\Comisiones4\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9405"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="reporte" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$C$126</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="75">
   <si>
     <t>Carolina Pereda</t>
   </si>
@@ -195,6 +190,63 @@
   </si>
   <si>
     <t>CAGUAYO</t>
+  </si>
+  <si>
+    <t>Asesor de Servicios Premium 1 - PC</t>
+  </si>
+  <si>
+    <t>Asesor de Servicios Preferentes - Empresa</t>
+  </si>
+  <si>
+    <t>EPA Empresas</t>
+  </si>
+  <si>
+    <t>Churn Empresas*</t>
+  </si>
+  <si>
+    <t>Unidades Campaña de blindaje</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Miguel Garay</t>
+  </si>
+  <si>
+    <t>Jefe de Plataformas Outbound</t>
+  </si>
+  <si>
+    <t>Rodrigo Rejas</t>
+  </si>
+  <si>
+    <t>Kam Canales Presenciales</t>
+  </si>
+  <si>
+    <t>Efectividad total unidades blindadas</t>
+  </si>
+  <si>
+    <t>EPA Total postventa</t>
+  </si>
+  <si>
+    <t>EPA Total venta</t>
+  </si>
+  <si>
+    <t>Migraciones Total</t>
+  </si>
+  <si>
+    <t>Programadas TP + TPF</t>
+  </si>
+  <si>
+    <t>Ventas RUC (VOZ + BAM)</t>
+  </si>
+  <si>
+    <t>Efectividad Retención alertas Inbound</t>
   </si>
 </sst>
 </file>
@@ -532,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,14 +592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
@@ -555,7 +607,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -568,22 +620,28 @@
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -591,13 +649,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -605,13 +666,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -619,251 +683,305 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -871,329 +989,767 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C128">
-    <sortCondition ref="B2:B128"/>
+  <sortState ref="A2:E67">
+    <sortCondition ref="A2:A67"/>
+    <sortCondition ref="B2:B67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/metricas conjuntas.xlsx
+++ b/Data/metricas conjuntas.xlsx
@@ -15,7 +15,7 @@
     <sheet name="reporte" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$H$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">reporte!$A$1:$H$86</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="110">
   <si>
     <t>Francisco Rivera</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Churn RUC corporaciones</t>
   </si>
   <si>
-    <t>Paola Villar</t>
-  </si>
-  <si>
     <t>Churn RUC total</t>
   </si>
   <si>
@@ -341,14 +338,32 @@
     <t>Contactabilidad Alertas y Cartas</t>
   </si>
   <si>
-    <t>Falta ajustar</t>
+    <t>EPA Premium</t>
+  </si>
+  <si>
+    <t>Carolina Pereda</t>
+  </si>
+  <si>
+    <t>EPA Preferente</t>
+  </si>
+  <si>
+    <t>Yvonne Cornejo</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PLATAFORMAS INBOUND OS2</t>
+  </si>
+  <si>
+    <t>EPA Postpago Bloqueos</t>
+  </si>
+  <si>
+    <t>APOYO Nancy Novoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +382,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,12 +423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,16 +712,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
@@ -707,1936 +732,2069 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
+      <c r="A33" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
+      <c r="A52" t="s">
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
         <v>90</v>
       </c>
-      <c r="C78" t="s">
-        <v>55</v>
-      </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
         <v>90</v>
       </c>
-      <c r="C79" t="s">
-        <v>55</v>
-      </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
         <v>90</v>
       </c>
-      <c r="C80" t="s">
-        <v>55</v>
-      </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>34</v>
       </c>
-      <c r="G80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
         <v>78</v>
       </c>
-      <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+      <c r="A132" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G83">
-    <sortCondition ref="G2:G83"/>
-    <sortCondition ref="B2:B83"/>
-    <sortCondition ref="A2:A83"/>
+  <sortState ref="A26:G86">
+    <sortCondition ref="G26:G86"/>
+    <sortCondition ref="B26:B86"/>
+    <sortCondition ref="A26:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/metricas conjuntas.xlsx
+++ b/Data/metricas conjuntas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Documents\Comisiones\Comisiones-python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsaenza\Anaconda3\Lib\site-packages\ecomis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075A5967-7B46-4DD3-B8B3-4B8F190CD99E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557EDA1-2825-4D5F-AB30-C5F7FEE6FA1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t>KAM</t>
   </si>
   <si>
-    <t>POSICIÓN</t>
-  </si>
-  <si>
     <t>ASESOR DE SERVICIOS PREMIUM</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>Jaime Moreno</t>
+  </si>
+  <si>
+    <t>ESQUEMA</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -759,7 +759,7 @@
         <v>84</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>44</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>78</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>42</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>42</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>42</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
@@ -935,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>48</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>48</v>
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
@@ -1007,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>52</v>
@@ -1031,7 +1031,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>52</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>52</v>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>52</v>
@@ -1103,7 +1103,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>52</v>
@@ -1127,7 +1127,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>52</v>
@@ -1151,7 +1151,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>52</v>
@@ -1175,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>52</v>
@@ -1199,7 +1199,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>52</v>
@@ -1223,7 +1223,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>52</v>
@@ -1247,7 +1247,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>52</v>
@@ -1271,7 +1271,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>52</v>
@@ -1295,7 +1295,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>52</v>
@@ -1319,7 +1319,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>52</v>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>43</v>
@@ -1849,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1872,13 +1872,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -1895,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1918,13 +1918,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
         <v>24</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
         <v>47</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
         <v>25</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
         <v>24</v>
@@ -2329,16 +2329,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
         <v>24</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
@@ -2375,16 +2375,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
         <v>24</v>
@@ -2398,16 +2398,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
         <v>24</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>42</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>42</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>49</v>
@@ -2513,16 +2513,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
         <v>24</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
-      </c>
-      <c r="C78" t="s">
-        <v>88</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
         <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
         <v>87</v>
       </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" t="s">
         <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>88</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
         <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>88</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -2654,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
         <v>50</v>
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
         <v>50</v>
@@ -2700,7 +2700,7 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
         <v>51</v>
@@ -2723,7 +2723,7 @@
         <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
         <v>51</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
         <v>104</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>105</v>
-      </c>
-      <c r="D87" t="s">
-        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>24</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" t="s">
         <v>104</v>
       </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>105</v>
-      </c>
-      <c r="D88" t="s">
-        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
